--- a/deuChatbot/research_result/version_2(2500_0).xlsx
+++ b/deuChatbot/research_result/version_2(2500_0).xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F401"/>
+  <dimension ref="A1:F423"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
       <selection activeCell="H307" sqref="H307"/>
@@ -27215,6 +27215,1451 @@
         </is>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기시험의 모집단위, 종목, 배점, 준비물, 주제, 화지 크기 및 시험 시간을 모두 올바르게 설명하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 각 항목이 명확하게 정리되어 있어 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 포인트에 직접적으로 관련이 있으며, 실기시험에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다. 표현이 자연스럽고 이해하기 쉬운 방식으로 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있어 전체적으로 일관된 메시지를 전달합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성에 문제가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 직관적이며, 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>0.7978618414492977</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인이 모집단위로 나뉘어 진행됩니다. 각 분야는 기초디자인과 사고의 전환 두 가지 종목 중 하나를 선택하여 준비해야 합니다.
+기본적으로 각 종목별 배점은 700점(70%)입니다. 
+1. **기초디자인**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다.
+   - **화지크기**: 켄트지3절입니다.
+   - **시험기간**: 5시간 동안 진행됩니다.
+2. **사고의 전환**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '콜라병과 계절'과 같은 주제가 될 수 있습니다.
+   - **화지크기**: 켄트지2절입니다.
+   - **시험기간**: 5시간 동안 진행됩니다.
+이러한 실기시험은 창의성과 표현 능력을 평가하는 중요한 부분으로, 준비 과정에서 다양한 주제에 대한 아이디어를 발전시키는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 "각각의 종목별 배점 비율은 70%와 30%이다"라는 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 일관되게 전달하고 있지만, 배점 비율에 대한 언급이 추가되어 있어 원본과의 일관성이 떨어집니다. 이로 인해 일부 일관성이 결여된 것으로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 실기종목과 준비물, 주제 등을 명확하게 설명하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목 간의 연결이 자연스럽습니다. 그러나 배점 비율에 대한 추가 정보가 포함되어 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 배점 비율에 대한 정보가 원본에 없기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 배점 비율에 대한 언급이 원본에 없기 때문에 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>0.7864567309142086</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 기초디자인과 사고의 전환으로 나뉘며, 각각의 종목별 배점 비율은 70%와 30%이다.
+기초디자인의 준비물은 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨한다. 예시로 잠자리와 저울을 연결한 주제를 들 수 있다. 화지크기는 켄트지3절이며, 시간은 5시간이다.
+사고의 전환의 준비물 역시 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구이며, 실기주제는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨한다. 예시로 콜라병과 계절을 연결한 주제를 들 수 있다. 화지크기는 켄트지2절이며, 시간은 5시간이다.
+이러한 정보는 디자인조형학과의 실기고사에서 시각디자인, 산업디자인, 공예디자인 모집단위에 해당한다.</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 대회에 대한 정보가 충돌 없이 잘 정리되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 흐름을 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 정보가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>0.8971940667225657</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 대한 정보는 종목별로 다르게 되어 있습니다.
+1. 배드민턴(남)의 경우, 다음과 같은 대회가 인정됩니다:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)의 경우, 다음과 같은 대회가 인정됩니다:
+   -춘계한국고등학교축구연맹전
+   -추계한국고등학교축구연맹전
+   -대한축구협회장배전국고등학교축구대회
+   -문화체육관광부장관기전국고등학교축구대회
+   -문화체육관광부장관배전국고등학교축구대회
+   -백운기전국고등학교축구대회
+   -전국고등축구리그(권역별고교축구리그)
+   -전국고등축구리그왕중왕전
+   -무학기전국고등학교축구대회
+   -청룡기전국고등학교축구대회
+   -백록기전국고등학교축구대회
+   -금강대기전국고등학교축구대회
+   -대통령금배전국고등학교축구대회
+   -금석배전국고등학생축구대회
+   -부산MBC전국고등학생축구대회
+   -K리그 U18 챔피언십
+   -K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기록으로 남겨두면, 경기지도학과의 모집에서 인정받게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다. 주제A와 주제B의 내용, 그리고 시험 당일의 주제 선정 방식이 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다. 모든 정보가 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 핵심 내용을 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 자연스러운 표현이 사용되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>0.8068130641026088</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용되는 주제들은 다음과 같습니다.
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+위의 주제들은 당일 추첨을 통해 각 1개씩 선정되어 연결된 주제를 만들게 됩니다. 예시로는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있지만, "출결, 서류, 면접, 실기 등의 요소가 반영되지 않고"라는 부분은 사실과 다릅니다. 학생부 교과 전형에서 서류, 면접, 실기 등의 요소가 반영되지 않는다는 정보는 제공되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 점에서 일관성을 유지하고 있지만, 추가된 정보가 원본 텍스트와 모순되는 부분이 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 점수에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 추가된 정보가 원본과의 일관성을 해치므로 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 점수가 반영되지 않는다는 정보는 정확하지만, 다른 요소들이 반영되지 않는다는 주장은 사실이 아닙니다. 따라서 정확성 점수는 다소 낮아집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있지만, 일부 정보의 부정확성으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 맥락을 벗어나므로 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>0.721763983006586</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 출결, 서류, 면접, 실기 등의 요소가 반영되지 않고, 유일하게 수능이 100%의 비율로 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 모집 인원 수와 전형에 대한 정보를 정확하게 반영하고 있으며, 연도만 추가되었을 뿐 사실적인 내용은 변하지 않았습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>0.9301294051326514</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>0.7458236256577492</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 영어영문학과는 다군 일반학생전형으로 28명을 모집하는 것으로 확인되었습니다.</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원에 대한 사실이 잘못되었습니다. 원본 텍스트에서는 22명이라고 명시되어 있지만, 생성된 응답에서는 110명이라고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 모집 인원에 대한 정보가 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있습니다. 간호학과의 모집 인원에 대한 질문에 대한 답변이므로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, "나군 일반 학생 전형의 모집 인원은" 부분에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 연결되어 있으며, 주제에 대한 명확한 정보를 제공합니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 모집 인원에 대한 정확한 정보를 제공하지 않으므로 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성과 정확성에서 큰 문제를 가지고 있지만, 관련성과 유창성에서는 어느 정도 긍정적인 요소가 있습니다. 그러나 전반적인 품질은 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 잘못된 사실을 포함하고 있어 의미 전달에 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 이해하기 쉬운 문장으로 구성되어 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>0.7542522203017592</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 모집 인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 영어영역 등급에 따른 점수를 정확하게 나열하고 있으며, 등급과 점수의 일치도 확인됩니다. 그러나 "이러한 점수는 해당 등급에 맞게 변환됩니다."라는 문장은 원본 텍스트에 포함되어 있지 않은 추가 정보로, 다소 혼란을 줄 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 등급과 점수의 나열이 일치합니다. 그러나 추가된 문장이 원본과의 일관성을 약간 떨어뜨릴 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 영어 등급에 따른 점수를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "등급 1 :"과 같은 표현에서 공백이 불필요하게 들어가 있어 약간의 어색함이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 점수와 등급의 나열이 명확합니다. 그러나 마지막 문장이 원본과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 점수와 등급을 정확하게 반영하고 있습니다. 그러나 추가된 문장이 정확성에 약간의 혼란을 줄 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 추가된 문장으로 인해 약간의 혼란이 발생할 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 문장이 의미적으로 다소 부적절할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 마지막 문장이 다소 혼란을 줄 수 있어 완전한 명확성을 제공하지는 않습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>0.9259534252143816</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다.
+- 등급 1 : 139점
+- 등급 2 : 131점
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점
+이러한 점수는 해당 등급에 맞게 변환됩니다.</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형에 지원할 수 있다고 잘못 주장하고 있습니다. 원문에서는 예술고 학생이 해당 전형에 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 예술고 학생이 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원 가능성을 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 예술고 학생의 지원 자격에 대한 정보를 제공하지만, 원문에서 명시된 핵심 내용인 '지원할 수 없다'는 점을 간과하고 있습니다. 따라서 관련성은 있지만, 핵심 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 원문과의 관계를 명확히 하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 예술고 학생이 지원할 수 없다는 사실을 잘못 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락을 잘못 전달하고 있습니다. 예술고 학생의 지원 가능성에 대한 잘못된 정보를 제공하여 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 부분이 있지만, 원문과의 불일치로 인해 혼란을 초래할 수 있습니다. 따라서 이해하기 어려운 부분이 존재합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>0.7134391081279876</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 고교유형별 지원자격에서 특수목적고의 예술고로 분류되므로, 나군 학생부종합(조기취업형계약학과전형)에서는 지원 가능합니다. 그러나 농어촌학생전형인 경우에는 지원 자격이 다를 수 있으므로, 해당 전형의 지원 자격 조건을 확인해야 합니다.
+농어촌학생전형의 지원 자격은 일반고나 자율고 등에서 주로 요구되며, 특수목적고는 제한적으로 지원할 수 있습니다. 예술고 학생이 농어촌학생전형인 경우에도 지원 가능성을 확인하기 위해 해당 전형의 공식 홈페이지나 입학처에 문의하는 것이 좋습니다.
+따라서, 정확한 답변을 위해서는 해당 대학의 농어촌학생전형의 지원 자격 조건을 확인하시기 바랍니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 "남은 268~271cm"라는 부분은 사실과 다릅니다. 원본 텍스트에서는 4등급의 기록이 218~221 cm로 명확히 제시되어 있습니다. 따라서 이 부분에서 큰 부정확성이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. "남은 268~271cm"라는 기록은 원본과 상충하며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 4등급 기록과 배점에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만 "여은"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 문장 구조는 비교적 일관되지만, "남은 268~271cm"라는 부분이 원본과의 연결성을 약화시킵니다. 이로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답의 기록 부분에서 잘못된 정보가 포함되어 있어 정확성이 낮습니다. 원본 텍스트의 정보와 비교했을 때, 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부는 잘 수행했지만, 사실성과 일관성에서 큰 문제를 보였습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 전반적으로 의미는 전달되지만, 잘못된 정보가 포함되어 있어 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 비교적 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>0.8925846895311339</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 남은 268~271cm, 여은 218~221cm이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있지만, "학생부교과, 실기/실적 위주전형에서"라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 추가된 정보로 인해 일관성이 떨어질 수 있습니다. 원본 텍스트는 단순히 비율만 언급하고 있어, 전형에 대한 정보는 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있지만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 반영 비율이 12%라는 사실은 정확하지만, 전형에 대한 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 일부 정보의 추가로 인해 약간의 부정확성과 일관성 문제를 가지고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트와의 일치성에서 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>0.648153081627999</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과의 출결 반영 비율은 학생부교과, 실기/실적 위주전형에서 12%입니다.
+이 정보는 "2024학년도 주요 변경사항" 섹션에서 찾아볼 수 있으며, 해당 섹션에서는 다양한 전형의 출결 반영 비율을 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 정보를 완전히 잘못 전달하고 있습니다. 원본 텍스트에서는 4명을 모집한다고 명시하고 있지만, 생성된 응답에서는 모집 인원이 없다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서 명확히 언급된 모집 인원과는 정반대의 내용을 담고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보인 모집 인원에 대한 질문에 대한 답변이 아닌, 정보가 없다는 내용으로 대체하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 없다는 내용을 전달하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 그러나 문장 구조는 비교적 명확합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 제공합니다. 모집 인원이 없다는 주장은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부정확합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>0.7166301725823965</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대 2024학년도 가군에서 물리치료학과에 대한 모집인원이 없습니다. 추가 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 실기고사 일정에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>0.3724657517424324</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024. 01. 17.(수)에 있습니다.
+디자인조형학과는 시각디자인, 산업디자인, 공예디자인이 모집단위이며, 실기종목은 기초디자인과 사고의 전환으로 나뉩니다. 각 종목별로 배점 비율이 70%와 30%입니다.
+주의할 점은 이 일정은 디자인조형학과 전체에 적용되며, 특정 모집단위(시각디자인, 산업디자인, 공예디자인)별로 실기종목이 다르게 설정될 수 있다는 것입니다.</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 언급하지 않고, 관련 데이터가 없다고만 언급하고 있습니다. 그러나 수능 최저 학력 기준이 없다는 정보는 정확하게 반영되지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 수능 최저 학력 기준이 없다는 사실을 명확히 하지 않으므로, 원본 텍스트와의 일관성이 떨어집니다. 그러나 다른 전공에 대한 통계가 포함되어 있다는 점은 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 응답은 동의대학교 2024학년도 응용화학과에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 웹사이트 링크를 통해 추가 정보를 찾을 수 있도록 안내하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 수능 최저 학력 기준에 대한 언급이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 최저 학력 기준이 없다는 사실을 명확히 하지 않지만, 다른 전공에 대한 통계가 포함되어 있다는 점은 정확합니다. 그러나 원본 텍스트의 핵심 사실이 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 수능 최저 학력 기준에 대한 명확한 언급이 부족하여 완전한 적절성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있으나, 수능 최저 학력 기준에 대한 정보가 부족하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>0.4128843464915765</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과에 대한 관련 데이터가 없습니다. 다른 전공들에 대한 통계만이 포함되어 있습니다. 
+더 정확한 답변을 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 동의대학교 2024학년도 응용화학과의 수능 최저기준을 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신설된 학과 목록에서 '창업투자경영학과'와 '경기지도학과'를 누락하였으므로, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 일부 신설된 학과를 포함하고 있지만, 누락된 학과로 인해 일관성이 떨어집니다. 따라서 점수는 3입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 주제와 관련이 있으며, 신설된 학과에 대한 정보를 직접적으로 다루고 있습니다. 점수는 5입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색함이 있을 수 있습니다. 점수는 4입니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 신설된 학과에 대한 정보를 명확하게 전달하고 있습니다. 점수는 4입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 신설된 학과 목록에서 일부 과목이 누락되어 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으나, 일부 정보의 누락으로 인해 점수는 4입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 주제와 잘 맞아떨어집니다. 점수는 4입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 명확하고 이해하기 쉬우나, 누락된 정보로 인해 약간의 혼란을 줄 수 있습니다. 점수는 4입니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>0.7982887095799193</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 심리학과와 스마트항만물류학과가 있습니다. 또한 라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)도 신설되었습니다.
+따라서 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 라이프융합학부</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 서류 70%와 면접 30%라고 명시되어 있지만, 생성된 응답에서는 출결 70%와 서류 30%로 잘못 기재되어 있습니다. 또한, 학생부 교과, 실기, 수능의 비율이 0%로 잘못 언급되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 원문에서 언급된 면접 비율이 0%로 잘못 기재되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 정보를 제공하고 있지만, 잘못된 정보로 인해 원문과의 관련성이 떨어집니다. 그러나 전형요소에 대한 설명이 포함되어 있어 어느 정도 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나열된 형식을 가지고 있지만, 잘못된 정보로 인해 논리적인 흐름이 약해집니다. 원문과의 불일치로 인해 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 크게 다르며, 사실관계가 전혀 맞지 않습니다. 전형요소 반영비율에 대한 정확한 정보를 제공하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 전형요소에 대한 설명을 포함하고 있지만, 잘못된 정보로 인해 의미적으로 부적절합니다. 원문의 맥락과 맞지 않는 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>0.8252324388724552</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다.
+- 학생부 교과: 0%
+- 출결: 70%
+- 서류: 30%
+- 면접: 0%
+- 실기: 0%
+- 수능: 0%
+이와 같이, 이 전형에서는 주로 출결(70%)과 서류(30%)에 중점을 두고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위를 잘못 언급하고 있습니다. 원문에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 가산점을 적용한다고 명시되어 있지만, 생성된 응답에서는 한의예과만 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 한의예과에 대한 정보는 원문에 포함되어 있지 않습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하고 있지만, 원문에서 언급된 모집단위와 관련이 없기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 한의예과에 대한 정보와 다른 학과에 대한 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 사실적으로 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 전반적으로 원문과의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하지만, 원문과의 맥락이 맞지 않아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>0.7120824995266504</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>1학년에서 수능 가산점을 적용하는 학과는 한의예과입니다. 이 학과에서는 수학(미적분/기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+그 외에 다른 학과에서는 수능 가산점을 적용하지 않습니다. 만약 더 자세한 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과는 다르게, 수능 반영 영역과 비율에 대한 구체적인 내용을 추가하고 있습니다. 그러나 원문에서 언급된 '100% 반영'이라는 핵심 사실이 왜곡되었고, 추가된 정보가 원문과 일치하지 않기 때문에 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, 수능 성적 반영 방법에 대한 구체적인 내용이 원문과 상충합니다. 원문에서는 수능 성적을 100% 반영한다고만 언급하고 있으므로, 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하고 있어 원문과 관련이 있습니다. 그러나 원문에서 요구하는 정보와는 다소 차이가 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 원문과의 차이로 인해 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 나열되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 다르게 수능 성적 반영 방법에 대한 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전체적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 핵심 메시지와는 다소 다르게 해석될 수 있습니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으며, 명확한 언어로 작성되어 있습니다. 그러나 원문과의 차이로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>0.7749469590279837</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+- 모집단위는 전 모집단위입니다.
+- 수능 반영 영역은 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목)입니다.
+- 반영 영역별 비율은 각각 25%이며, 상위 3개 영역의 경우는 국어, 수학, 영어에 대해 각각 33.33%를 반영합니다.
+이러한 방식으로 수능 성적을 반영하여 학생들의 종합적인 능력을 평가하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 날짜와 학교 이름이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬운 문장으로 잘 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>0.9128408788063518</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 완전히 잘못 전달하고 있습니다. 원본 텍스트에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다고 명시하고 있지만, 생성된 응답에서는 레저스포츠학과와 태권도학과가 제외되었다고 잘못 언급하고 있습니다. 이는 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트의 내용과 생성된 응답의 내용이 서로 모순되므로 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 내용과는 다르게 다른 학과에 대한 언급이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적인 부분이 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 잘못된 정보가 포함되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 내용을 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>0.5853723100397712</v>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 레저스포츠학과와 태권도학과는 제외되었습니다. 이는 가군 실기/실적(일반학생전형) 전형요소 반영비율에서 확인할 수 있습니다. 가군 실기/실적(일반학생전형)에서는 레저스포츠학과와 태권도학과가 모집단위로 포함되며, 이들 학과의 경우 수능은 30%를 차지하고 실기는 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 반복적으로 확인하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 정보가 일관되게 전달되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제를 직접적으로 다루고 있으며, 관련된 추가 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>0.8228188759047153</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 전형요소 반영비율에서 명시되어 있습니다.
+전형요소 반영비율에서 다군 수능(일반학생전형) 전 모집단위에 대한 정보가 제공되며, 여기서 수능최저기준 항목은 "수능최저기준 없음"으로 표시되어 있습니다. 이는 해당 전형에서 수능 최저 기준이 적용되지 않는 것을 의미합니다.
+따라서 2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
